--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117998.7026297806</v>
+        <v>20803182.87263657</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117998.7026297806</v>
+        <v>20803182.87263657</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5238.287315521447</v>
+        <v>527372.6715034276</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5238.287315521447</v>
+        <v>527372.6715034276</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112059903.991913</v>
+        <v>45127686.43011536</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8554.411930283948</v>
+        <v>991258.5491270869</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16594.47383947612</v>
+        <v>1900827.728545991</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24551.31210521291</v>
+        <v>2810396.907964983</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32830.38209693369</v>
+        <v>3722137.117322143</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41062.88413272132</v>
+        <v>4633648.492141364</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49267.8054432939</v>
+        <v>5545159.866960522</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57602.32664500904</v>
+        <v>6456671.241779719</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65763.3103350517</v>
+        <v>7368182.616598873</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73800.05797298714</v>
+        <v>8274124.941059346</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81826.73501248295</v>
+        <v>9183973.19089856</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89850.55081577567</v>
+        <v>10093542.37031741</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97634.01051958835</v>
+        <v>11001886.96572913</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105478.4241488874</v>
+        <v>11910379.65993097</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113747.4972360412</v>
+        <v>12764682.67197658</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121917.5824855036</v>
+        <v>13619562.11550465</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27055,10 +27055,10 @@
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>395</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>91</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
